--- a/pH_levels_over_time.xlsx
+++ b/pH_levels_over_time.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B167"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,1324 +450,640 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.874060847466752</v>
+        <v>7.383250130358889</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8.440990101634317e-08</v>
+        <v>4.370687949582168e-07</v>
       </c>
       <c r="B3" t="n">
-        <v>5.874067767390148</v>
+        <v>7.383249884687207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.688198020326863e-07</v>
+        <v>8.741375899164335e-07</v>
       </c>
       <c r="B4" t="n">
-        <v>5.874074688391309</v>
+        <v>7.383249663250965</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.012918812196118e-06</v>
+        <v>5.244825539498601e-06</v>
       </c>
       <c r="B5" t="n">
-        <v>5.874143873202187</v>
+        <v>7.383247568016161</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.85701782235955e-06</v>
+        <v>9.615513489080769e-06</v>
       </c>
       <c r="B6" t="n">
-        <v>5.874213021330252</v>
+        <v>7.383245576542837</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.752282659491229e-06</v>
+        <v>5.332239298490245e-05</v>
       </c>
       <c r="B7" t="n">
-        <v>5.874530792985866</v>
+        <v>7.383225671099698</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9.647547496622909e-06</v>
+        <v>9.702927248072412e-05</v>
       </c>
       <c r="B8" t="n">
-        <v>5.874847067452614</v>
+        <v>7.383205817622574</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.953079310548806e-05</v>
+        <v>0.0002991445170498505</v>
       </c>
       <c r="B9" t="n">
-        <v>5.875640192151639</v>
+        <v>7.383114018804257</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.941403871435322e-05</v>
+        <v>0.0005012597616189769</v>
       </c>
       <c r="B10" t="n">
-        <v>5.876423551718593</v>
+        <v>7.38302225993443</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.676730140387103e-05</v>
+        <v>0.0007033750061881032</v>
       </c>
       <c r="B11" t="n">
-        <v>5.878546573558882</v>
+        <v>7.382930802368039</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8.412056409338884e-05</v>
+        <v>0.001562658610866143</v>
       </c>
       <c r="B12" t="n">
-        <v>5.880598688607516</v>
+        <v>7.382546741124647</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0001114738267829066</v>
+        <v>0.002421942215544182</v>
       </c>
       <c r="B13" t="n">
-        <v>5.882579672899965</v>
+        <v>7.382169893589281</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0001839140610049775</v>
+        <v>0.003281225820222222</v>
       </c>
       <c r="B14" t="n">
-        <v>5.887519479825485</v>
+        <v>7.381800926934271</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0002563542952270484</v>
+        <v>0.005710283133532678</v>
       </c>
       <c r="B15" t="n">
-        <v>5.892091207299356</v>
+        <v>7.380797625588452</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0003287945294491193</v>
+        <v>0.00754674539623596</v>
       </c>
       <c r="B16" t="n">
-        <v>5.896384161147608</v>
+        <v>7.380072149267301</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0004011257359506487</v>
+        <v>0.009383207658939241</v>
       </c>
       <c r="B17" t="n">
-        <v>5.900517765277049</v>
+        <v>7.379362721851908</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0004734569424521782</v>
+        <v>0.01121966992164252</v>
       </c>
       <c r="B18" t="n">
-        <v>5.904561917508899</v>
+        <v>7.378667830471028</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0005457881489537076</v>
+        <v>0.0130561321843458</v>
       </c>
       <c r="B19" t="n">
-        <v>5.908546962466289</v>
+        <v>7.377984760632637</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0006491340494014696</v>
+        <v>0.01540703766080427</v>
       </c>
       <c r="B20" t="n">
-        <v>5.914215705753217</v>
+        <v>7.377123473013928</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0007524799498492315</v>
+        <v>0.01775794313726273</v>
       </c>
       <c r="B21" t="n">
-        <v>5.919843762615254</v>
+        <v>7.376272350185423</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.0008558258502969935</v>
+        <v>0.0201088486137212</v>
       </c>
       <c r="B22" t="n">
-        <v>5.92544886407422</v>
+        <v>7.375428099663739</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.0009591717507447554</v>
+        <v>0.02245975409017966</v>
       </c>
       <c r="B23" t="n">
-        <v>5.93102466427072</v>
+        <v>7.374589003745285</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.001289013297815412</v>
+        <v>0.02617414431578602</v>
       </c>
       <c r="B24" t="n">
-        <v>5.948666603777076</v>
+        <v>7.373269783225392</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.001618854844886068</v>
+        <v>0.02988853454139238</v>
       </c>
       <c r="B25" t="n">
-        <v>5.966063034083589</v>
+        <v>7.371956054033902</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.001948696391956724</v>
+        <v>0.03360292476699873</v>
       </c>
       <c r="B26" t="n">
-        <v>5.983210991086469</v>
+        <v>7.370645220472253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.002625911521699393</v>
+        <v>0.04060849093251048</v>
       </c>
       <c r="B27" t="n">
-        <v>6.017695129298724</v>
+        <v>7.368175748598585</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.003303126651442062</v>
+        <v>0.04761405709802223</v>
       </c>
       <c r="B28" t="n">
-        <v>6.051099805407826</v>
+        <v>7.365703685501706</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.00398034178118473</v>
+        <v>0.05461962326353398</v>
       </c>
       <c r="B29" t="n">
-        <v>6.083398067787836</v>
+        <v>7.363225520701465</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.005409655879584047</v>
+        <v>0.06162518942904573</v>
       </c>
       <c r="B30" t="n">
-        <v>6.147733341378489</v>
+        <v>7.360739500124525</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.006838969977983365</v>
+        <v>0.08317130324528998</v>
       </c>
       <c r="B31" t="n">
-        <v>6.206986804378421</v>
+        <v>7.353028046178693</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.008268284076382682</v>
+        <v>0.1047174170615342</v>
       </c>
       <c r="B32" t="n">
-        <v>6.261362626796311</v>
+        <v>7.345211069600039</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.009697598174782</v>
+        <v>0.1262635308777785</v>
       </c>
       <c r="B33" t="n">
-        <v>6.311074910221476</v>
+        <v>7.337283413996613</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.01177866042731055</v>
+        <v>0.1685215978245435</v>
       </c>
       <c r="B34" t="n">
-        <v>6.375786199870658</v>
+        <v>7.321442939175367</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.0138597226798391</v>
+        <v>0.2107796647713085</v>
       </c>
       <c r="B35" t="n">
-        <v>6.432126133228549</v>
+        <v>7.305288029106166</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.01594078493236764</v>
+        <v>0.2530377317180735</v>
       </c>
       <c r="B36" t="n">
-        <v>6.481063051263895</v>
+        <v>7.288940869715947</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.01802184718489619</v>
+        <v>0.2952957986648386</v>
       </c>
       <c r="B37" t="n">
-        <v>6.523744761791771</v>
+        <v>7.272519997019322</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.02010290943742474</v>
+        <v>0.3605174489280821</v>
       </c>
       <c r="B38" t="n">
-        <v>6.561318117048333</v>
+        <v>7.247268734377187</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.02353445950510927</v>
+        <v>0.4045116024860955</v>
       </c>
       <c r="B39" t="n">
-        <v>6.613779161497216</v>
+        <v>7.230378710897648</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.02696600957279379</v>
+        <v>0.4144522868146392</v>
       </c>
       <c r="B40" t="n">
-        <v>6.657791871409892</v>
+        <v>7.22659022535798</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.03039755964047832</v>
+        <v>0.4147629331999062</v>
       </c>
       <c r="B41" t="n">
-        <v>6.695470671464535</v>
+        <v>7.226471843682771</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.03382910970816284</v>
+        <v>0.4150735795851732</v>
       </c>
       <c r="B42" t="n">
-        <v>6.72805579431892</v>
+        <v>7.226353568917743</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.03837570862578918</v>
+        <v>0.4153842259704402</v>
       </c>
       <c r="B43" t="n">
-        <v>6.764522960933651</v>
+        <v>7.226235305519968</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.04292230754341551</v>
+        <v>0.4184906898231103</v>
       </c>
       <c r="B44" t="n">
-        <v>6.794961050204556</v>
+        <v>7.225053048657232</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.04746890646104185</v>
+        <v>0.4215971536757804</v>
       </c>
       <c r="B45" t="n">
-        <v>6.820462547745219</v>
+        <v>7.223871898402223</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.05201550537866818</v>
+        <v>0.4494201747573848</v>
       </c>
       <c r="B46" t="n">
-        <v>6.841648135126092</v>
+        <v>7.213334440853829</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.05744083077091948</v>
+        <v>0.4772431958389891</v>
       </c>
       <c r="B47" t="n">
-        <v>6.86202959672702</v>
+        <v>7.202902666968669</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.06140549028051249</v>
+        <v>0.5470626442895196</v>
       </c>
       <c r="B48" t="n">
-        <v>6.873894563801926</v>
+        <v>7.177255176638414</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.0653701497901055</v>
+        <v>0.61688209274005</v>
       </c>
       <c r="B49" t="n">
-        <v>6.883747517332448</v>
+        <v>7.152402933571041</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.06933480929969851</v>
+        <v>0.6867015411905805</v>
       </c>
       <c r="B50" t="n">
-        <v>6.891895435433995</v>
+        <v>7.128394676846125</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.07329946880929153</v>
+        <v>0.8611255230388508</v>
       </c>
       <c r="B51" t="n">
-        <v>6.898590543644315</v>
+        <v>7.072161243707036</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.07726412831888455</v>
+        <v>1.035549504887121</v>
       </c>
       <c r="B52" t="n">
-        <v>6.904050372036814</v>
+        <v>7.021109335910955</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.08174684743606574</v>
+        <v>1.209973486735391</v>
       </c>
       <c r="B53" t="n">
-        <v>6.908967786181658</v>
+        <v>6.974716251806063</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.08622956655324693</v>
+        <v>1.384397468583662</v>
       </c>
       <c r="B54" t="n">
-        <v>6.91273282592062</v>
+        <v>6.932365752305879</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.09071228567042812</v>
+        <v>1.643592811161024</v>
       </c>
       <c r="B55" t="n">
-        <v>6.915488277998969</v>
+        <v>6.875670951770937</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.09519500478760931</v>
+        <v>1.902788153738386</v>
       </c>
       <c r="B56" t="n">
-        <v>6.917334211103992</v>
+        <v>6.82518547529059</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.0996777239047905</v>
+        <v>2.161983496315749</v>
       </c>
       <c r="B57" t="n">
-        <v>6.918345542116189</v>
+        <v>6.779785930111426</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.1064937551050197</v>
+        <v>2.64102696061367</v>
       </c>
       <c r="B58" t="n">
-        <v>6.918418743543125</v>
+        <v>6.706445179610866</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.113309786305249</v>
+        <v>3.12007042491159</v>
       </c>
       <c r="B59" t="n">
-        <v>6.916879520468411</v>
+        <v>6.643652114498342</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1201258175054782</v>
+        <v>3.599113889209511</v>
       </c>
       <c r="B60" t="n">
-        <v>6.913866322331555</v>
+        <v>6.588815593492305</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1269418487057075</v>
+        <v>4.078157353507432</v>
       </c>
       <c r="B61" t="n">
-        <v>6.909484021410226</v>
+        <v>6.540187301717702</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.1443524132302263</v>
+        <v>4.685372672091567</v>
       </c>
       <c r="B62" t="n">
-        <v>6.892811267746631</v>
+        <v>6.485580326530023</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.1617629777547452</v>
+        <v>5.292587990675703</v>
       </c>
       <c r="B63" t="n">
-        <v>6.868675775547914</v>
+        <v>6.437210833439837</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.179173542279264</v>
+        <v>5.899803309259838</v>
       </c>
       <c r="B64" t="n">
-        <v>6.8374549675258</v>
+        <v>6.393820574584957</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.2077918514395708</v>
+        <v>6.507018627843973</v>
       </c>
       <c r="B65" t="n">
-        <v>6.769962343380245</v>
+        <v>6.354485265737297</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.2364101605998776</v>
+        <v>7.689698203466572</v>
       </c>
       <c r="B66" t="n">
-        <v>6.677231489350585</v>
+        <v>6.287024123859631</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.2573762726395477</v>
+        <v>8.87237777908917</v>
       </c>
       <c r="B67" t="n">
-        <v>6.58500366613295</v>
+        <v>6.228784124868495</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.2783423846792177</v>
+        <v>10.05505735471177</v>
       </c>
       <c r="B68" t="n">
-        <v>6.455193776502311</v>
+        <v>6.177421644843456</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.2933340614072356</v>
+        <v>11.23773693033437</v>
       </c>
       <c r="B69" t="n">
-        <v>6.320450027691177</v>
+        <v>6.131404994503907</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.301987095234339</v>
+        <v>12.88894294176381</v>
       </c>
       <c r="B70" t="n">
-        <v>6.215711595383235</v>
+        <v>6.074226672898897</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.3106401290614423</v>
+        <v>14.54014895319325</v>
       </c>
       <c r="B71" t="n">
-        <v>6.081838453535063</v>
+        <v>6.023662153437967</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.3192931628885457</v>
+        <v>16.19135496462269</v>
       </c>
       <c r="B72" t="n">
-        <v>5.911063959409031</v>
+        <v>5.978507728737989</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.324604627510347</v>
+        <v>17.84256097605213</v>
       </c>
       <c r="B73" t="n">
-        <v>5.788558858629057</v>
+        <v>5.937952157065398</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.3299160921321483</v>
+        <v>19.49376698748157</v>
       </c>
       <c r="B74" t="n">
-        <v>5.65903023579735</v>
+        <v>5.901328826059251</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.3352275567539497</v>
+        <v>22.2252887736693</v>
       </c>
       <c r="B75" t="n">
-        <v>5.531822345568196</v>
+        <v>5.848043222757007</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.340539021375751</v>
+        <v>24.95681055985703</v>
       </c>
       <c r="B76" t="n">
-        <v>5.414675629543734</v>
+        <v>5.80234985641925</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.3452885074425139</v>
+        <v>27.68833234604476</v>
       </c>
       <c r="B77" t="n">
-        <v>5.321252271939814</v>
+        <v>5.762911711630937</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.3500379935092769</v>
+        <v>30.41985413223249</v>
       </c>
       <c r="B78" t="n">
-        <v>5.238638201332757</v>
+        <v>5.728698518897152</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.3547874795760398</v>
+        <v>34.77005947269672</v>
       </c>
       <c r="B79" t="n">
-        <v>5.165898514462732</v>
+        <v>5.682992141507485</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.3595369656428028</v>
+        <v>39.12026481316094</v>
       </c>
       <c r="B80" t="n">
-        <v>5.10180352205449</v>
+        <v>5.645882703190887</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.3677836747175174</v>
+        <v>40</v>
       </c>
       <c r="B81" t="n">
-        <v>5.007533309845467</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>0.3760303837922321</v>
-      </c>
-      <c r="B82" t="n">
-        <v>4.930514897363703</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>0.3842770928669467</v>
-      </c>
-      <c r="B83" t="n">
-        <v>4.866745287612363</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>0.3847925121841164</v>
-      </c>
-      <c r="B84" t="n">
-        <v>4.863130100145674</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>0.385307931501286</v>
-      </c>
-      <c r="B85" t="n">
-        <v>4.859551887187216</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>0.3858233508184556</v>
-      </c>
-      <c r="B86" t="n">
-        <v>4.856011171277992</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>0.3863387701356253</v>
-      </c>
-      <c r="B87" t="n">
-        <v>4.852508134942614</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>0.3894113239145953</v>
-      </c>
-      <c r="B88" t="n">
-        <v>4.832345323598732</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>0.3897089242795271</v>
-      </c>
-      <c r="B89" t="n">
-        <v>4.830433602612846</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>0.3900065246444589</v>
-      </c>
-      <c r="B90" t="n">
-        <v>4.82853342608765</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>0.3903041250093907</v>
-      </c>
-      <c r="B91" t="n">
-        <v>4.826644807190005</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>0.3906017253743225</v>
-      </c>
-      <c r="B92" t="n">
-        <v>4.824767751977747</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>0.391288844620342</v>
-      </c>
-      <c r="B93" t="n">
-        <v>4.820477445272538</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>0.3919759638663614</v>
-      </c>
-      <c r="B94" t="n">
-        <v>4.816247019978326</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>0.3926630831123809</v>
-      </c>
-      <c r="B95" t="n">
-        <v>4.812075120385475</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>0.3933502023584003</v>
-      </c>
-      <c r="B96" t="n">
-        <v>4.807960423610556</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>0.3963955672989101</v>
-      </c>
-      <c r="B97" t="n">
-        <v>4.79037777799505</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>0.3994409322394198</v>
-      </c>
-      <c r="B98" t="n">
-        <v>4.773795552588682</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>0.4024862971799296</v>
-      </c>
-      <c r="B99" t="n">
-        <v>4.758126393292018</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>0.4080367244177822</v>
-      </c>
-      <c r="B100" t="n">
-        <v>4.731650396271449</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>0.4135871516556348</v>
-      </c>
-      <c r="B101" t="n">
-        <v>4.7075467897641</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>0.4191375788934874</v>
-      </c>
-      <c r="B102" t="n">
-        <v>4.685485296066007</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>0.435411214528474</v>
-      </c>
-      <c r="B103" t="n">
-        <v>4.630235545468647</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>0.4516848501634607</v>
-      </c>
-      <c r="B104" t="n">
-        <v>4.585460336544553</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>0.4679584857984473</v>
-      </c>
-      <c r="B105" t="n">
-        <v>4.548079459484094</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>0.4842321214334339</v>
-      </c>
-      <c r="B106" t="n">
-        <v>4.516167814675572</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>0.5066777258311488</v>
-      </c>
-      <c r="B107" t="n">
-        <v>4.478650097956669</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>0.5291233302288636</v>
-      </c>
-      <c r="B108" t="n">
-        <v>4.446916401289577</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>0.5515689346265784</v>
-      </c>
-      <c r="B109" t="n">
-        <v>4.419527077714902</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>0.5938004338927962</v>
-      </c>
-      <c r="B110" t="n">
-        <v>4.376637294632081</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>0.6360319331590141</v>
-      </c>
-      <c r="B111" t="n">
-        <v>4.341619981560784</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>0.6782634324252319</v>
-      </c>
-      <c r="B112" t="n">
-        <v>4.312025225618797</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>0.7204949316914497</v>
-      </c>
-      <c r="B113" t="n">
-        <v>4.286445920716274</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>0.7741909250585108</v>
-      </c>
-      <c r="B114" t="n">
-        <v>4.258300858183134</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>0.8278869184255719</v>
-      </c>
-      <c r="B115" t="n">
-        <v>4.233898935418853</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>0.881582911792633</v>
-      </c>
-      <c r="B116" t="n">
-        <v>4.212364912650091</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>0.9352789051596941</v>
-      </c>
-      <c r="B117" t="n">
-        <v>4.193105454050132</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>1.014213514052848</v>
-      </c>
-      <c r="B118" t="n">
-        <v>4.168050746388603</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>1.093148122946002</v>
-      </c>
-      <c r="B119" t="n">
-        <v>4.1460496274325</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>1.172082731839157</v>
-      </c>
-      <c r="B120" t="n">
-        <v>4.126440639381171</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>1.251017340732311</v>
-      </c>
-      <c r="B121" t="n">
-        <v>4.108760365210977</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>1.356556555339689</v>
-      </c>
-      <c r="B122" t="n">
-        <v>4.087567278917227</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>1.462095769947067</v>
-      </c>
-      <c r="B123" t="n">
-        <v>4.06858245096218</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>1.567634984554445</v>
-      </c>
-      <c r="B124" t="n">
-        <v>4.051431589555779</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>1.673174199161823</v>
-      </c>
-      <c r="B125" t="n">
-        <v>4.035780128652251</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>1.778713413769202</v>
-      </c>
-      <c r="B126" t="n">
-        <v>4.021385911572669</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>1.95234839742883</v>
-      </c>
-      <c r="B127" t="n">
-        <v>3.999974084755033</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>2.125983381088459</v>
-      </c>
-      <c r="B128" t="n">
-        <v>3.980844321301066</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>2.299618364748088</v>
-      </c>
-      <c r="B129" t="n">
-        <v>3.963545321895375</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>2.473253348407717</v>
-      </c>
-      <c r="B130" t="n">
-        <v>3.947751885156947</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>2.788916456151985</v>
-      </c>
-      <c r="B131" t="n">
-        <v>3.922030606292754</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>3.104579563896254</v>
-      </c>
-      <c r="B132" t="n">
-        <v>3.899466608268383</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>3.420242671640523</v>
-      </c>
-      <c r="B133" t="n">
-        <v>3.879386753360782</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>4.051468759059621</v>
-      </c>
-      <c r="B134" t="n">
-        <v>3.844666106495484</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>4.68269484647872</v>
-      </c>
-      <c r="B135" t="n">
-        <v>3.81534255770117</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>5.313920933897818</v>
-      </c>
-      <c r="B136" t="n">
-        <v>3.789577943571703</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>5.945147021316917</v>
-      </c>
-      <c r="B137" t="n">
-        <v>3.766515193326801</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>6.93335948198191</v>
-      </c>
-      <c r="B138" t="n">
-        <v>3.734482695033877</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>7.921571942646903</v>
-      </c>
-      <c r="B139" t="n">
-        <v>3.705963588616163</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>8.909784403311896</v>
-      </c>
-      <c r="B140" t="n">
-        <v>3.67988271757957</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>9.897996863976889</v>
-      </c>
-      <c r="B141" t="n">
-        <v>3.655533515836231</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>11.4209421103467</v>
-      </c>
-      <c r="B142" t="n">
-        <v>3.620288889381634</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>12.94388735671651</v>
-      </c>
-      <c r="B143" t="n">
-        <v>3.586580522655973</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>14.46683260308632</v>
-      </c>
-      <c r="B144" t="n">
-        <v>3.553352387228333</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>15.98977784945613</v>
-      </c>
-      <c r="B145" t="n">
-        <v>3.519770386133415</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>18.5705405657266</v>
-      </c>
-      <c r="B146" t="n">
-        <v>3.459966665584275</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>21.15130328199707</v>
-      </c>
-      <c r="B147" t="n">
-        <v>3.393236012073153</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>23.73206599826754</v>
-      </c>
-      <c r="B148" t="n">
-        <v>3.314983649573269</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>26.31282871453801</v>
-      </c>
-      <c r="B149" t="n">
-        <v>3.218548373846284</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>30.16661745001375</v>
-      </c>
-      <c r="B150" t="n">
-        <v>3.012006003842437</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>30.17038091557573</v>
-      </c>
-      <c r="B151" t="n">
-        <v>3.012059826805304</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>30.17414438113772</v>
-      </c>
-      <c r="B152" t="n">
-        <v>3.011798306433872</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>30.17790784669971</v>
-      </c>
-      <c r="B153" t="n">
-        <v>3.011536684867864</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>30.1816713122617</v>
-      </c>
-      <c r="B154" t="n">
-        <v>3.011274894468357</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>30.21930596788158</v>
-      </c>
-      <c r="B155" t="n">
-        <v>3.008647936615821</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>30.25694062350146</v>
-      </c>
-      <c r="B156" t="n">
-        <v>3.006004375018339</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>30.29457527912135</v>
-      </c>
-      <c r="B157" t="n">
-        <v>3.003344091500084</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>30.45616787343959</v>
-      </c>
-      <c r="B158" t="n">
-        <v>2.991755942857508</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>30.53696417059871</v>
-      </c>
-      <c r="B159" t="n">
-        <v>2.985832046235839</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>30.61776046775784</v>
-      </c>
-      <c r="B160" t="n">
-        <v>2.979824353068894</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>31.27045785729625</v>
-      </c>
-      <c r="B161" t="n">
-        <v>2.928390264269358</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>31.92315524683467</v>
-      </c>
-      <c r="B162" t="n">
-        <v>2.86982765503212</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>33.10114822619308</v>
-      </c>
-      <c r="B163" t="n">
-        <v>2.737375585404758</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>34.2791412055515</v>
-      </c>
-      <c r="B164" t="n">
-        <v>2.544673565183335</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>35.45713418490991</v>
-      </c>
-      <c r="B165" t="n">
-        <v>2.190203405040352</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>38.81543343920833</v>
-      </c>
-      <c r="B166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>40</v>
-      </c>
-      <c r="B167" t="inlineStr"/>
+        <v>5.639243353839843</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
